--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-90000-5910$-zero.ssm.data-SIDE.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-90000-5910$-zero.ssm.data-SIDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13759F6-4EB9-0046-9131-5F233B942C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A13E1-ED37-AF43-BCEF-F1374614B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-49760" yWindow="920" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
